--- a/ams/cases/ieee39/ieee39.xlsx
+++ b/ams/cases/ieee39/ieee39.xlsx
@@ -8,26 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C29430-EF22-D046-9023-0D96F3AD640F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C5C2E2-AC73-2844-9069-E899ADF66072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bus" sheetId="1" r:id="rId1"/>
-    <sheet name="PQ" sheetId="2" r:id="rId2"/>
-    <sheet name="Slack" sheetId="4" r:id="rId3"/>
-    <sheet name="Line" sheetId="5" r:id="rId4"/>
-    <sheet name="GCost" sheetId="6" r:id="rId5"/>
-    <sheet name="Area" sheetId="7" r:id="rId6"/>
-    <sheet name="Region" sheetId="8" r:id="rId7"/>
-    <sheet name="PV" sheetId="3" r:id="rId8"/>
+    <sheet name="Summary" sheetId="14" r:id="rId1"/>
+    <sheet name="Bus" sheetId="1" r:id="rId2"/>
+    <sheet name="PQ" sheetId="2" r:id="rId3"/>
+    <sheet name="PV" sheetId="3" r:id="rId4"/>
+    <sheet name="Slack" sheetId="4" r:id="rId5"/>
+    <sheet name="Line" sheetId="5" r:id="rId6"/>
+    <sheet name="Area" sheetId="7" r:id="rId7"/>
+    <sheet name="Region" sheetId="8" r:id="rId8"/>
+    <sheet name="GCost" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="273">
   <si>
     <t>idx</t>
   </si>
@@ -71,123 +85,6 @@
     <t>uid</t>
   </si>
   <si>
-    <t>Bus 1</t>
-  </si>
-  <si>
-    <t>Bus 2</t>
-  </si>
-  <si>
-    <t>Bus 3</t>
-  </si>
-  <si>
-    <t>Bus 4</t>
-  </si>
-  <si>
-    <t>Bus 5</t>
-  </si>
-  <si>
-    <t>Bus 6</t>
-  </si>
-  <si>
-    <t>Bus 7</t>
-  </si>
-  <si>
-    <t>Bus 8</t>
-  </si>
-  <si>
-    <t>Bus 9</t>
-  </si>
-  <si>
-    <t>Bus 10</t>
-  </si>
-  <si>
-    <t>Bus 11</t>
-  </si>
-  <si>
-    <t>Bus 12</t>
-  </si>
-  <si>
-    <t>Bus 13</t>
-  </si>
-  <si>
-    <t>Bus 14</t>
-  </si>
-  <si>
-    <t>Bus 15</t>
-  </si>
-  <si>
-    <t>Bus 16</t>
-  </si>
-  <si>
-    <t>Bus 17</t>
-  </si>
-  <si>
-    <t>Bus 18</t>
-  </si>
-  <si>
-    <t>Bus 19</t>
-  </si>
-  <si>
-    <t>Bus 20</t>
-  </si>
-  <si>
-    <t>Bus 21</t>
-  </si>
-  <si>
-    <t>Bus 22</t>
-  </si>
-  <si>
-    <t>Bus 23</t>
-  </si>
-  <si>
-    <t>Bus 24</t>
-  </si>
-  <si>
-    <t>Bus 25</t>
-  </si>
-  <si>
-    <t>Bus 26</t>
-  </si>
-  <si>
-    <t>Bus 27</t>
-  </si>
-  <si>
-    <t>Bus 28</t>
-  </si>
-  <si>
-    <t>Bus 29</t>
-  </si>
-  <si>
-    <t>Bus 30</t>
-  </si>
-  <si>
-    <t>Bus 31</t>
-  </si>
-  <si>
-    <t>Bus 32</t>
-  </si>
-  <si>
-    <t>Bus 33</t>
-  </si>
-  <si>
-    <t>Bus 34</t>
-  </si>
-  <si>
-    <t>Bus 35</t>
-  </si>
-  <si>
-    <t>Bus 36</t>
-  </si>
-  <si>
-    <t>Bus 37</t>
-  </si>
-  <si>
-    <t>Bus 38</t>
-  </si>
-  <si>
-    <t>Bus 39</t>
-  </si>
-  <si>
     <t>bus</t>
   </si>
   <si>
@@ -254,75 +151,6 @@
     <t>PQ_19</t>
   </si>
   <si>
-    <t>PQ_20</t>
-  </si>
-  <si>
-    <t>PQ_21</t>
-  </si>
-  <si>
-    <t>PQ 1</t>
-  </si>
-  <si>
-    <t>PQ 3</t>
-  </si>
-  <si>
-    <t>PQ 4</t>
-  </si>
-  <si>
-    <t>PQ 7</t>
-  </si>
-  <si>
-    <t>PQ 8</t>
-  </si>
-  <si>
-    <t>PQ 9</t>
-  </si>
-  <si>
-    <t>PQ 12</t>
-  </si>
-  <si>
-    <t>PQ 15</t>
-  </si>
-  <si>
-    <t>PQ 16</t>
-  </si>
-  <si>
-    <t>PQ 18</t>
-  </si>
-  <si>
-    <t>PQ 20</t>
-  </si>
-  <si>
-    <t>PQ 21</t>
-  </si>
-  <si>
-    <t>PQ 23</t>
-  </si>
-  <si>
-    <t>PQ 24</t>
-  </si>
-  <si>
-    <t>PQ 25</t>
-  </si>
-  <si>
-    <t>PQ 26</t>
-  </si>
-  <si>
-    <t>PQ 27</t>
-  </si>
-  <si>
-    <t>PQ 28</t>
-  </si>
-  <si>
-    <t>PQ 29</t>
-  </si>
-  <si>
-    <t>PQ 31</t>
-  </si>
-  <si>
-    <t>PQ 39</t>
-  </si>
-  <si>
     <t>Sn</t>
   </si>
   <si>
@@ -389,9 +217,597 @@
     <t>td2</t>
   </si>
   <si>
+    <t>bus1</t>
+  </si>
+  <si>
+    <t>bus2</t>
+  </si>
+  <si>
+    <t>fn</t>
+  </si>
+  <si>
+    <t>Vn1</t>
+  </si>
+  <si>
+    <t>Vn2</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>g1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>g2</t>
+  </si>
+  <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t>tap</t>
+  </si>
+  <si>
+    <t>phi</t>
+  </si>
+  <si>
+    <t>rate_a</t>
+  </si>
+  <si>
+    <t>rate_b</t>
+  </si>
+  <si>
+    <t>rate_c</t>
+  </si>
+  <si>
+    <t>amin</t>
+  </si>
+  <si>
+    <t>amax</t>
+  </si>
+  <si>
+    <t>Line_1</t>
+  </si>
+  <si>
+    <t>Line_2</t>
+  </si>
+  <si>
+    <t>Line_3</t>
+  </si>
+  <si>
+    <t>Line_4</t>
+  </si>
+  <si>
+    <t>Line_5</t>
+  </si>
+  <si>
+    <t>Line_6</t>
+  </si>
+  <si>
+    <t>Line_7</t>
+  </si>
+  <si>
+    <t>Line_8</t>
+  </si>
+  <si>
+    <t>Line_9</t>
+  </si>
+  <si>
+    <t>Line_10</t>
+  </si>
+  <si>
+    <t>Line_11</t>
+  </si>
+  <si>
+    <t>Line_12</t>
+  </si>
+  <si>
+    <t>Line_13</t>
+  </si>
+  <si>
+    <t>Line_14</t>
+  </si>
+  <si>
+    <t>Line_15</t>
+  </si>
+  <si>
+    <t>Line_16</t>
+  </si>
+  <si>
+    <t>Line_17</t>
+  </si>
+  <si>
+    <t>Line_18</t>
+  </si>
+  <si>
+    <t>Line_19</t>
+  </si>
+  <si>
+    <t>Line_20</t>
+  </si>
+  <si>
+    <t>Line_21</t>
+  </si>
+  <si>
+    <t>Line_22</t>
+  </si>
+  <si>
+    <t>Line_23</t>
+  </si>
+  <si>
+    <t>Line_24</t>
+  </si>
+  <si>
+    <t>Line_25</t>
+  </si>
+  <si>
+    <t>Line_26</t>
+  </si>
+  <si>
+    <t>Line_27</t>
+  </si>
+  <si>
+    <t>Line_28</t>
+  </si>
+  <si>
+    <t>Line_29</t>
+  </si>
+  <si>
+    <t>Line_30</t>
+  </si>
+  <si>
+    <t>Line_31</t>
+  </si>
+  <si>
+    <t>Line_32</t>
+  </si>
+  <si>
+    <t>Line_33</t>
+  </si>
+  <si>
+    <t>Line_34</t>
+  </si>
+  <si>
+    <t>Line_35</t>
+  </si>
+  <si>
+    <t>Line_36</t>
+  </si>
+  <si>
+    <t>Line_37</t>
+  </si>
+  <si>
+    <t>Line_38</t>
+  </si>
+  <si>
+    <t>Line_39</t>
+  </si>
+  <si>
+    <t>Line_40</t>
+  </si>
+  <si>
+    <t>Line_41</t>
+  </si>
+  <si>
+    <t>Line_42</t>
+  </si>
+  <si>
+    <t>Line_43</t>
+  </si>
+  <si>
+    <t>Line_44</t>
+  </si>
+  <si>
+    <t>Line_45</t>
+  </si>
+  <si>
+    <t>Line_46</t>
+  </si>
+  <si>
+    <t>Line 1-2</t>
+  </si>
+  <si>
+    <t>Line 1-39</t>
+  </si>
+  <si>
+    <t>Line 2-3</t>
+  </si>
+  <si>
+    <t>Line 2-25</t>
+  </si>
+  <si>
+    <t>Line 2-30</t>
+  </si>
+  <si>
+    <t>Line 3-4</t>
+  </si>
+  <si>
+    <t>Line 3-18</t>
+  </si>
+  <si>
+    <t>Line 4-5</t>
+  </si>
+  <si>
+    <t>Line 4-14</t>
+  </si>
+  <si>
+    <t>Line 5-6</t>
+  </si>
+  <si>
+    <t>Line 5-8</t>
+  </si>
+  <si>
+    <t>Line 6-7</t>
+  </si>
+  <si>
+    <t>Line 6-11</t>
+  </si>
+  <si>
+    <t>Line 6-31</t>
+  </si>
+  <si>
+    <t>Line 7-8</t>
+  </si>
+  <si>
+    <t>Line 8-9</t>
+  </si>
+  <si>
+    <t>Line 9-39</t>
+  </si>
+  <si>
+    <t>Line 10-11</t>
+  </si>
+  <si>
+    <t>Line 10-13</t>
+  </si>
+  <si>
+    <t>Line 10-32</t>
+  </si>
+  <si>
+    <t>Line 12-11</t>
+  </si>
+  <si>
+    <t>Line 12-13</t>
+  </si>
+  <si>
+    <t>Line 13-14</t>
+  </si>
+  <si>
+    <t>Line 14-15</t>
+  </si>
+  <si>
+    <t>Line 15-16</t>
+  </si>
+  <si>
+    <t>Line 16-17</t>
+  </si>
+  <si>
+    <t>Line 16-19</t>
+  </si>
+  <si>
+    <t>Line 16-21</t>
+  </si>
+  <si>
+    <t>Line 16-24</t>
+  </si>
+  <si>
+    <t>Line 17-18</t>
+  </si>
+  <si>
+    <t>Line 17-27</t>
+  </si>
+  <si>
+    <t>Line 19-20</t>
+  </si>
+  <si>
+    <t>Line 19-33</t>
+  </si>
+  <si>
+    <t>Line 20-34</t>
+  </si>
+  <si>
+    <t>Line 21-22</t>
+  </si>
+  <si>
+    <t>Line 22-23</t>
+  </si>
+  <si>
+    <t>Line 22-35</t>
+  </si>
+  <si>
+    <t>Line 23-24</t>
+  </si>
+  <si>
+    <t>Line 23-36</t>
+  </si>
+  <si>
+    <t>Line 25-26</t>
+  </si>
+  <si>
+    <t>Line 25-37</t>
+  </si>
+  <si>
+    <t>Line 26-27</t>
+  </si>
+  <si>
+    <t>Line 26-28</t>
+  </si>
+  <si>
+    <t>Line 26-29</t>
+  </si>
+  <si>
+    <t>Line 28-29</t>
+  </si>
+  <si>
+    <t>Line 29-38</t>
+  </si>
+  <si>
+    <t>gen</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>csu</t>
+  </si>
+  <si>
+    <t>csd</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c0</t>
+  </si>
+  <si>
+    <t>GCost_1</t>
+  </si>
+  <si>
+    <t>GCost_2</t>
+  </si>
+  <si>
+    <t>GCost_3</t>
+  </si>
+  <si>
+    <t>GCost_4</t>
+  </si>
+  <si>
+    <t>GCost_5</t>
+  </si>
+  <si>
+    <t>GCost_6</t>
+  </si>
+  <si>
+    <t>GCost_7</t>
+  </si>
+  <si>
+    <t>GCost_8</t>
+  </si>
+  <si>
+    <t>GCost_9</t>
+  </si>
+  <si>
+    <t>GCost_10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>AREA1</t>
+  </si>
+  <si>
+    <t>AREA2</t>
+  </si>
+  <si>
+    <t>ZONE1</t>
+  </si>
+  <si>
+    <t>ZONE2</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>comment2</t>
+  </si>
+  <si>
+    <t>comment3</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>PV_30</t>
+  </si>
+  <si>
+    <t>PV_32</t>
+  </si>
+  <si>
+    <t>PV_33</t>
+  </si>
+  <si>
+    <t>PV_34</t>
+  </si>
+  <si>
+    <t>PV_35</t>
+  </si>
+  <si>
+    <t>PV_36</t>
+  </si>
+  <si>
+    <t>PV_37</t>
+  </si>
+  <si>
+    <t>PV_38</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>StaticGen</t>
+  </si>
+  <si>
+    <t>Load factor in EDTSlot and UCTSlot sourced from ISO-NE day-ahead cleared hourly load on 2022 June 29</t>
+  </si>
+  <si>
+    <t>Modified IEEE 39-bus test case</t>
+  </si>
+  <si>
+    <t>Minimum on/off time of generators were made up</t>
+  </si>
+  <si>
+    <t>BUS1</t>
+  </si>
+  <si>
+    <t>BUS2</t>
+  </si>
+  <si>
+    <t>LOAD3</t>
+  </si>
+  <si>
+    <t>LOAD4</t>
+  </si>
+  <si>
+    <t>BUS5</t>
+  </si>
+  <si>
+    <t>BUS6</t>
+  </si>
+  <si>
+    <t>LOAD7</t>
+  </si>
+  <si>
+    <t>LOAD8</t>
+  </si>
+  <si>
+    <t>BUS9</t>
+  </si>
+  <si>
+    <t>BUS10</t>
+  </si>
+  <si>
+    <t>BUS11</t>
+  </si>
+  <si>
+    <t>LOAD12</t>
+  </si>
+  <si>
+    <t>BUS13</t>
+  </si>
+  <si>
+    <t>BUS14</t>
+  </si>
+  <si>
+    <t>LOAD15</t>
+  </si>
+  <si>
+    <t>LOAD16</t>
+  </si>
+  <si>
+    <t>BUS17</t>
+  </si>
+  <si>
+    <t>LOAD18</t>
+  </si>
+  <si>
+    <t>BUS19</t>
+  </si>
+  <si>
+    <t>LOAD20</t>
+  </si>
+  <si>
+    <t>LOAD21</t>
+  </si>
+  <si>
+    <t>BUS22</t>
+  </si>
+  <si>
+    <t>LOAD23</t>
+  </si>
+  <si>
+    <t>LOAD24</t>
+  </si>
+  <si>
+    <t>LOAD25</t>
+  </si>
+  <si>
+    <t>LOAD26</t>
+  </si>
+  <si>
+    <t>LOAD27</t>
+  </si>
+  <si>
+    <t>LOAD28</t>
+  </si>
+  <si>
+    <t>LOAD29</t>
+  </si>
+  <si>
+    <t>GEN30</t>
+  </si>
+  <si>
+    <t>GEN31</t>
+  </si>
+  <si>
+    <t>GEN32</t>
+  </si>
+  <si>
+    <t>GEN33</t>
+  </si>
+  <si>
+    <t>GEN34</t>
+  </si>
+  <si>
+    <t>GEN35</t>
+  </si>
+  <si>
+    <t>GEN36</t>
+  </si>
+  <si>
+    <t>GEN37</t>
+  </si>
+  <si>
+    <t>GEN38</t>
+  </si>
+  <si>
+    <t>GEN39</t>
+  </si>
+  <si>
+    <t>PV_31</t>
+  </si>
+  <si>
+    <t>Slack_39</t>
+  </si>
+  <si>
     <t>PV 30</t>
   </si>
   <si>
+    <t>PV 31</t>
+  </si>
+  <si>
     <t>PV 32</t>
   </si>
   <si>
@@ -413,463 +829,60 @@
     <t>PV 38</t>
   </si>
   <si>
-    <t>PV 39</t>
-  </si>
-  <si>
-    <t>Slack 31</t>
-  </si>
-  <si>
-    <t>bus1</t>
-  </si>
-  <si>
-    <t>bus2</t>
-  </si>
-  <si>
-    <t>fn</t>
-  </si>
-  <si>
-    <t>Vn1</t>
-  </si>
-  <si>
-    <t>Vn2</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>g1</t>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>g2</t>
-  </si>
-  <si>
-    <t>trans</t>
-  </si>
-  <si>
-    <t>tap</t>
-  </si>
-  <si>
-    <t>phi</t>
-  </si>
-  <si>
-    <t>rate_a</t>
-  </si>
-  <si>
-    <t>rate_b</t>
-  </si>
-  <si>
-    <t>rate_c</t>
-  </si>
-  <si>
-    <t>amin</t>
-  </si>
-  <si>
-    <t>amax</t>
-  </si>
-  <si>
-    <t>Line_1</t>
-  </si>
-  <si>
-    <t>Line_2</t>
-  </si>
-  <si>
-    <t>Line_3</t>
-  </si>
-  <si>
-    <t>Line_4</t>
-  </si>
-  <si>
-    <t>Line_5</t>
-  </si>
-  <si>
-    <t>Line_6</t>
-  </si>
-  <si>
-    <t>Line_7</t>
-  </si>
-  <si>
-    <t>Line_8</t>
-  </si>
-  <si>
-    <t>Line_9</t>
-  </si>
-  <si>
-    <t>Line_10</t>
-  </si>
-  <si>
-    <t>Line_11</t>
-  </si>
-  <si>
-    <t>Line_12</t>
-  </si>
-  <si>
-    <t>Line_13</t>
-  </si>
-  <si>
-    <t>Line_14</t>
-  </si>
-  <si>
-    <t>Line_15</t>
-  </si>
-  <si>
-    <t>Line_16</t>
-  </si>
-  <si>
-    <t>Line_17</t>
-  </si>
-  <si>
-    <t>Line_18</t>
-  </si>
-  <si>
-    <t>Line_19</t>
-  </si>
-  <si>
-    <t>Line_20</t>
-  </si>
-  <si>
-    <t>Line_21</t>
-  </si>
-  <si>
-    <t>Line_22</t>
-  </si>
-  <si>
-    <t>Line_23</t>
-  </si>
-  <si>
-    <t>Line_24</t>
-  </si>
-  <si>
-    <t>Line_25</t>
-  </si>
-  <si>
-    <t>Line_26</t>
-  </si>
-  <si>
-    <t>Line_27</t>
-  </si>
-  <si>
-    <t>Line_28</t>
-  </si>
-  <si>
-    <t>Line_29</t>
-  </si>
-  <si>
-    <t>Line_30</t>
-  </si>
-  <si>
-    <t>Line_31</t>
-  </si>
-  <si>
-    <t>Line_32</t>
-  </si>
-  <si>
-    <t>Line_33</t>
-  </si>
-  <si>
-    <t>Line_34</t>
-  </si>
-  <si>
-    <t>Line_35</t>
-  </si>
-  <si>
-    <t>Line_36</t>
-  </si>
-  <si>
-    <t>Line_37</t>
-  </si>
-  <si>
-    <t>Line_38</t>
-  </si>
-  <si>
-    <t>Line_39</t>
-  </si>
-  <si>
-    <t>Line_40</t>
-  </si>
-  <si>
-    <t>Line_41</t>
-  </si>
-  <si>
-    <t>Line_42</t>
-  </si>
-  <si>
-    <t>Line_43</t>
-  </si>
-  <si>
-    <t>Line_44</t>
-  </si>
-  <si>
-    <t>Line_45</t>
-  </si>
-  <si>
-    <t>Line_46</t>
-  </si>
-  <si>
-    <t>Line 1-2</t>
-  </si>
-  <si>
-    <t>Line 1-39</t>
-  </si>
-  <si>
-    <t>Line 2-3</t>
-  </si>
-  <si>
-    <t>Line 2-25</t>
-  </si>
-  <si>
-    <t>Line 2-30</t>
-  </si>
-  <si>
-    <t>Line 3-4</t>
-  </si>
-  <si>
-    <t>Line 3-18</t>
-  </si>
-  <si>
-    <t>Line 4-5</t>
-  </si>
-  <si>
-    <t>Line 4-14</t>
-  </si>
-  <si>
-    <t>Line 5-6</t>
-  </si>
-  <si>
-    <t>Line 5-8</t>
-  </si>
-  <si>
-    <t>Line 6-7</t>
-  </si>
-  <si>
-    <t>Line 6-11</t>
-  </si>
-  <si>
-    <t>Line 6-31</t>
-  </si>
-  <si>
-    <t>Line 7-8</t>
-  </si>
-  <si>
-    <t>Line 8-9</t>
-  </si>
-  <si>
-    <t>Line 9-39</t>
-  </si>
-  <si>
-    <t>Line 10-11</t>
-  </si>
-  <si>
-    <t>Line 10-13</t>
-  </si>
-  <si>
-    <t>Line 10-32</t>
-  </si>
-  <si>
-    <t>Line 12-11</t>
-  </si>
-  <si>
-    <t>Line 12-13</t>
-  </si>
-  <si>
-    <t>Line 13-14</t>
-  </si>
-  <si>
-    <t>Line 14-15</t>
-  </si>
-  <si>
-    <t>Line 15-16</t>
-  </si>
-  <si>
-    <t>Line 16-17</t>
-  </si>
-  <si>
-    <t>Line 16-19</t>
-  </si>
-  <si>
-    <t>Line 16-21</t>
-  </si>
-  <si>
-    <t>Line 16-24</t>
-  </si>
-  <si>
-    <t>Line 17-18</t>
-  </si>
-  <si>
-    <t>Line 17-27</t>
-  </si>
-  <si>
-    <t>Line 19-20</t>
-  </si>
-  <si>
-    <t>Line 19-33</t>
-  </si>
-  <si>
-    <t>Line 20-34</t>
-  </si>
-  <si>
-    <t>Line 21-22</t>
-  </si>
-  <si>
-    <t>Line 22-23</t>
-  </si>
-  <si>
-    <t>Line 22-35</t>
-  </si>
-  <si>
-    <t>Line 23-24</t>
-  </si>
-  <si>
-    <t>Line 23-36</t>
-  </si>
-  <si>
-    <t>Line 25-26</t>
-  </si>
-  <si>
-    <t>Line 25-37</t>
-  </si>
-  <si>
-    <t>Line 26-27</t>
-  </si>
-  <si>
-    <t>Line 26-28</t>
-  </si>
-  <si>
-    <t>Line 26-29</t>
-  </si>
-  <si>
-    <t>Line 28-29</t>
-  </si>
-  <si>
-    <t>Line 29-38</t>
-  </si>
-  <si>
-    <t>gen</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>csu</t>
-  </si>
-  <si>
-    <t>csd</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c0</t>
-  </si>
-  <si>
-    <t>GCost_1</t>
-  </si>
-  <si>
-    <t>GCost_2</t>
-  </si>
-  <si>
-    <t>GCost_3</t>
-  </si>
-  <si>
-    <t>GCost_4</t>
-  </si>
-  <si>
-    <t>GCost_5</t>
-  </si>
-  <si>
-    <t>GCost_6</t>
-  </si>
-  <si>
-    <t>GCost_7</t>
-  </si>
-  <si>
-    <t>GCost_8</t>
-  </si>
-  <si>
-    <t>GCost_9</t>
-  </si>
-  <si>
-    <t>GCost_10</t>
-  </si>
-  <si>
-    <t>GCost_0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>AREA1</t>
-  </si>
-  <si>
-    <t>AREA2</t>
-  </si>
-  <si>
-    <t>AREA3</t>
-  </si>
-  <si>
-    <t>ZONE1</t>
-  </si>
-  <si>
-    <t>ZONE2</t>
-  </si>
-  <si>
-    <t>ZONE3</t>
+    <t>Slack 39</t>
+  </si>
+  <si>
+    <t>Gcost 1</t>
+  </si>
+  <si>
+    <t>Gcost 2</t>
+  </si>
+  <si>
+    <t>Gcost 3</t>
+  </si>
+  <si>
+    <t>Gcost 4</t>
+  </si>
+  <si>
+    <t>Gcost 5</t>
+  </si>
+  <si>
+    <t>Gcost 6</t>
+  </si>
+  <si>
+    <t>Gcost 7</t>
+  </si>
+  <si>
+    <t>Gcost 8</t>
+  </si>
+  <si>
+    <t>Gcost 9</t>
+  </si>
+  <si>
+    <t>Gcost 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -879,6 +892,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -919,14 +938,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1230,12 +1251,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E04B75D-6231-274E-B5EE-94327CA089DE}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2:L40"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1295,22 +1383,22 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="E2">
         <v>345</v>
       </c>
       <c r="F2">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G2">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H2">
-        <v>1.0393836000000001</v>
+        <v>1.03145</v>
       </c>
       <c r="I2">
-        <v>-0.2362582744320495</v>
+        <v>-0.21409604868364041</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1318,11 +1406,11 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
+      <c r="L2" t="s">
+        <v>190</v>
+      </c>
+      <c r="M2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1336,22 +1424,22 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="E3">
         <v>345</v>
       </c>
       <c r="F3">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G3">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H3">
-        <v>1.0484941000000001</v>
+        <v>1.00247</v>
       </c>
       <c r="I3">
-        <v>-0.170785120355431</v>
+        <v>-0.25021563755366311</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1359,11 +1447,11 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
+      <c r="L3" t="s">
+        <v>190</v>
+      </c>
+      <c r="M3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1377,22 +1465,22 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="E4">
         <v>345</v>
       </c>
       <c r="F4">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G4">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H4">
-        <v>1.0307077</v>
+        <v>0.95347999999999999</v>
       </c>
       <c r="I4">
-        <v>-0.21426332103915149</v>
+        <v>-0.33425324103719001</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1400,11 +1488,11 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
+      <c r="L4" t="s">
+        <v>190</v>
+      </c>
+      <c r="M4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1418,22 +1506,22 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>215</v>
       </c>
       <c r="E5">
         <v>345</v>
       </c>
       <c r="F5">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G5">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H5">
-        <v>1.0044599999999999</v>
+        <v>0.93103000000000002</v>
       </c>
       <c r="I5">
-        <v>-0.2203780820735137</v>
+        <v>-0.33625164303072352</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1441,11 +1529,11 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
+      <c r="L5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M5" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1459,22 +1547,22 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="E6">
         <v>345</v>
       </c>
       <c r="F6">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G6">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H6">
-        <v>1.0060062999999999</v>
+        <v>0.91744000000000003</v>
       </c>
       <c r="I6">
-        <v>-0.19534316654936959</v>
+        <v>-0.30487585906762149</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1482,11 +1570,11 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
+      <c r="L6" t="s">
+        <v>190</v>
+      </c>
+      <c r="M6" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1500,22 +1588,22 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="E7">
         <v>345</v>
       </c>
       <c r="F7">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G7">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H7">
-        <v>1.0082256000000001</v>
+        <v>0.91857999999999995</v>
       </c>
       <c r="I7">
-        <v>-0.18165962813410139</v>
+        <v>-0.29191853470081558</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1523,11 +1611,11 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
+      <c r="L7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1541,22 +1629,22 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="E8">
         <v>345</v>
       </c>
       <c r="F8">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G8">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H8">
-        <v>0.99839728000000005</v>
+        <v>0.86255000000000004</v>
       </c>
       <c r="I8">
-        <v>-0.2226276718529942</v>
+        <v>-0.32522639814587528</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1564,11 +1652,11 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
+      <c r="L8" t="s">
+        <v>190</v>
+      </c>
+      <c r="M8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1582,22 +1670,22 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="E9">
         <v>345</v>
       </c>
       <c r="F9">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G9">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H9">
-        <v>0.99787232000000003</v>
+        <v>0.87995000000000001</v>
       </c>
       <c r="I9">
-        <v>-0.2327543863323307</v>
+        <v>-0.3321710632395608</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1605,11 +1693,11 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
+      <c r="L9" t="s">
+        <v>190</v>
+      </c>
+      <c r="M9" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1623,22 +1711,22 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="E10">
         <v>345</v>
       </c>
       <c r="F10">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G10">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H10">
-        <v>1.038332</v>
+        <v>0.9788</v>
       </c>
       <c r="I10">
-        <v>-0.2474604957030499</v>
+        <v>-0.24487493004256039</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1646,11 +1734,11 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
+      <c r="L10" t="s">
+        <v>190</v>
+      </c>
+      <c r="M10" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1664,22 +1752,22 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="E11">
         <v>345</v>
       </c>
       <c r="F11">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G11">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H11">
-        <v>1.0178430999999999</v>
+        <v>0.95616000000000001</v>
       </c>
       <c r="I11">
-        <v>-0.1426086715188917</v>
+        <v>-0.25649707753159062</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1687,11 +1775,11 @@
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
+      <c r="L11" t="s">
+        <v>190</v>
+      </c>
+      <c r="M11" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1705,22 +1793,22 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="E12">
         <v>345</v>
       </c>
       <c r="F12">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G12">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H12">
-        <v>1.0133858</v>
+        <v>0.94294999999999995</v>
       </c>
       <c r="I12">
-        <v>-0.1559794870747753</v>
+        <v>-0.27025376269580997</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1728,11 +1816,11 @@
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
+      <c r="L12" t="s">
+        <v>190</v>
+      </c>
+      <c r="M12" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1746,22 +1834,22 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c r="E13">
-        <v>345</v>
+        <v>138</v>
       </c>
       <c r="F13">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G13">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H13">
-        <v>1.000815</v>
+        <v>0.94491000000000003</v>
       </c>
       <c r="I13">
-        <v>-0.15705910062616921</v>
+        <v>-0.30026469918385251</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1769,11 +1857,11 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
+      <c r="L13" t="s">
+        <v>190</v>
+      </c>
+      <c r="M13" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1787,22 +1875,22 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="E14">
         <v>345</v>
       </c>
       <c r="F14">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G14">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H14">
-        <v>1.014923</v>
+        <v>0.95233999999999996</v>
       </c>
       <c r="I14">
-        <v>-0.15585663160339819</v>
+        <v>-0.27215442625123182</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1810,11 +1898,11 @@
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
+      <c r="L14" t="s">
+        <v>190</v>
+      </c>
+      <c r="M14" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1828,22 +1916,22 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>225</v>
       </c>
       <c r="E15">
         <v>345</v>
       </c>
       <c r="F15">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G15">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H15">
-        <v>1.012319</v>
+        <v>0.94650999999999996</v>
       </c>
       <c r="I15">
-        <v>-0.1870171780724858</v>
+        <v>-0.30290189168361592</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1851,11 +1939,11 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
+      <c r="L15" t="s">
+        <v>190</v>
+      </c>
+      <c r="M15" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1869,22 +1957,22 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="E16">
         <v>345</v>
       </c>
       <c r="F16">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G16">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H16">
-        <v>1.0161853999999999</v>
+        <v>0.95647000000000004</v>
       </c>
       <c r="I16">
-        <v>-0.19801456750247209</v>
+        <v>-0.31402662033582768</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1892,11 +1980,11 @@
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16">
-        <v>3</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
+      <c r="L16" t="s">
+        <v>190</v>
+      </c>
+      <c r="M16" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1910,22 +1998,22 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c r="E17">
         <v>345</v>
       </c>
       <c r="F17">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G17">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H17">
-        <v>1.0325203000000001</v>
+        <v>0.97672999999999999</v>
       </c>
       <c r="I17">
-        <v>-0.17511495759838799</v>
+        <v>-0.28779432167835289</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1933,11 +2021,11 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17">
-        <v>3</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
+      <c r="L17" t="s">
+        <v>190</v>
+      </c>
+      <c r="M17" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1951,22 +2039,22 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c r="E18">
         <v>345</v>
       </c>
       <c r="F18">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G18">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H18">
-        <v>1.0342365</v>
+        <v>0.97494999999999998</v>
       </c>
       <c r="I18">
-        <v>-0.19401840928722841</v>
+        <v>-0.30764569659053648</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1974,11 +2062,11 @@
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
+      <c r="L18" t="s">
+        <v>190</v>
+      </c>
+      <c r="M18" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -1992,22 +2080,22 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>229</v>
       </c>
       <c r="E19">
         <v>345</v>
       </c>
       <c r="F19">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G19">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H19">
-        <v>1.0315726000000001</v>
+        <v>0.96519999999999995</v>
       </c>
       <c r="I19">
-        <v>-0.20919809629718369</v>
+        <v>-0.32616887594195232</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2015,11 +2103,11 @@
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19">
-        <v>2</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
+      <c r="L19" t="s">
+        <v>190</v>
+      </c>
+      <c r="M19" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -2033,22 +2121,22 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="E20">
         <v>345</v>
       </c>
       <c r="F20">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G20">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H20">
-        <v>1.0501068</v>
+        <v>1.0295799999999999</v>
       </c>
       <c r="I20">
-        <v>-9.4423584877917938E-2</v>
+        <v>-0.20383874866966981</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2056,11 +2144,11 @@
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
+      <c r="L20" t="s">
+        <v>190</v>
+      </c>
+      <c r="M20" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -2074,22 +2162,22 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="E21">
-        <v>345</v>
+        <v>138</v>
       </c>
       <c r="F21">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G21">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H21">
-        <v>0.99101054</v>
+        <v>0.97980999999999996</v>
       </c>
       <c r="I21">
-        <v>-0.1190520202005895</v>
+        <v>-0.22970452818422571</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2097,11 +2185,11 @@
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="L21">
-        <v>3</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
+      <c r="L21" t="s">
+        <v>190</v>
+      </c>
+      <c r="M21" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -2115,22 +2203,22 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="E22">
         <v>345</v>
       </c>
       <c r="F22">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G22">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H22">
-        <v>1.0323192000000001</v>
+        <v>0.99297999999999997</v>
       </c>
       <c r="I22">
-        <v>-0.13314673724367659</v>
+        <v>-0.24276657230615131</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2138,11 +2226,11 @@
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="L22">
-        <v>3</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
+      <c r="L22" t="s">
+        <v>190</v>
+      </c>
+      <c r="M22" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -2156,22 +2244,22 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="E23">
         <v>345</v>
       </c>
       <c r="F23">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G23">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H23">
-        <v>1.0501427000000001</v>
+        <v>1.02902</v>
       </c>
       <c r="I23">
-        <v>-5.5555922740752647E-2</v>
+        <v>-0.16149880634553929</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2179,11 +2267,11 @@
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23">
-        <v>3</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
+      <c r="L23" t="s">
+        <v>190</v>
+      </c>
+      <c r="M23" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -2197,22 +2285,22 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>234</v>
       </c>
       <c r="E24">
         <v>345</v>
       </c>
       <c r="F24">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G24">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H24">
-        <v>1.0451451</v>
+        <v>1.02329</v>
       </c>
       <c r="I24">
-        <v>-5.9014404354651537E-2</v>
+        <v>-0.16508371262913571</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2220,11 +2308,11 @@
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="L24">
-        <v>3</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
+      <c r="L24" t="s">
+        <v>190</v>
+      </c>
+      <c r="M24" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -2238,22 +2326,22 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>235</v>
       </c>
       <c r="E25">
         <v>345</v>
       </c>
       <c r="F25">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G25">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H25">
-        <v>1.038001</v>
+        <v>0.98714000000000002</v>
       </c>
       <c r="I25">
-        <v>-0.1730277270725743</v>
+        <v>-0.28573134250249571</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2261,11 +2349,11 @@
       <c r="K25">
         <v>0</v>
       </c>
-      <c r="L25">
-        <v>3</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
+      <c r="L25" t="s">
+        <v>190</v>
+      </c>
+      <c r="M25" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -2279,22 +2367,22 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="E26">
         <v>345</v>
       </c>
       <c r="F26">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G26">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H26">
-        <v>1.0576827</v>
+        <v>1.0212399999999999</v>
       </c>
       <c r="I26">
-        <v>-0.14607071360446469</v>
+        <v>-0.23560374105596649</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2302,11 +2390,11 @@
       <c r="K26">
         <v>0</v>
       </c>
-      <c r="L26">
-        <v>2</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
+      <c r="L26" t="s">
+        <v>190</v>
+      </c>
+      <c r="M26" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -2320,22 +2408,22 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>237</v>
       </c>
       <c r="E27">
         <v>345</v>
       </c>
       <c r="F27">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G27">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H27">
-        <v>1.0525613</v>
+        <v>1.01034</v>
       </c>
       <c r="I27">
-        <v>-0.16473760685714819</v>
+        <v>-0.26605624584476362</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2343,11 +2431,11 @@
       <c r="K27">
         <v>0</v>
       </c>
-      <c r="L27">
-        <v>2</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
+      <c r="L27" t="s">
+        <v>190</v>
+      </c>
+      <c r="M27" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -2361,22 +2449,22 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="E28">
         <v>345</v>
       </c>
       <c r="F28">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G28">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H28">
-        <v>1.0383449</v>
+        <v>0.98758000000000001</v>
       </c>
       <c r="I28">
-        <v>-0.19830696251205879</v>
+        <v>-0.30705926596186639</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2384,11 +2472,11 @@
       <c r="K28">
         <v>0</v>
       </c>
-      <c r="L28">
-        <v>2</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
+      <c r="L28" t="s">
+        <v>190</v>
+      </c>
+      <c r="M28" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -2402,22 +2490,22 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="E29">
         <v>345</v>
       </c>
       <c r="F29">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G29">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H29">
-        <v>1.0503737</v>
+        <v>1.0201499999999999</v>
       </c>
       <c r="I29">
-        <v>-0.103469387280897</v>
+        <v>-0.20138132508286169</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2425,11 +2513,11 @@
       <c r="K29">
         <v>0</v>
       </c>
-      <c r="L29">
-        <v>3</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
+      <c r="L29" t="s">
+        <v>190</v>
+      </c>
+      <c r="M29" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -2443,22 +2531,22 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="E30">
         <v>345</v>
       </c>
       <c r="F30">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G30">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H30">
-        <v>1.0501149000000001</v>
+        <v>1.0242800000000001</v>
       </c>
       <c r="I30">
-        <v>-5.5324739918691981E-2</v>
+        <v>-0.1509378190417216</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2466,11 +2554,11 @@
       <c r="K30">
         <v>0</v>
       </c>
-      <c r="L30">
-        <v>3</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
+      <c r="L30" t="s">
+        <v>190</v>
+      </c>
+      <c r="M30" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -2484,22 +2572,22 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>241</v>
       </c>
       <c r="E31">
-        <v>345</v>
+        <v>34.5</v>
       </c>
       <c r="F31">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G31">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H31">
-        <v>1.0499000000000001</v>
+        <v>1.00458</v>
       </c>
       <c r="I31">
-        <v>-0.12863904920461211</v>
+        <v>-0.20414243595951681</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2507,11 +2595,11 @@
       <c r="K31">
         <v>0</v>
       </c>
-      <c r="L31">
-        <v>2</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
+      <c r="L31" t="s">
+        <v>190</v>
+      </c>
+      <c r="M31" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -2525,22 +2613,22 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="E32">
-        <v>345</v>
+        <v>34.5</v>
       </c>
       <c r="F32">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G32">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H32">
-        <v>0.98199999999999998</v>
+        <v>0.90644000000000002</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>-0.1583205617776576</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2548,11 +2636,11 @@
       <c r="K32">
         <v>0</v>
       </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
+      <c r="L32" t="s">
+        <v>190</v>
+      </c>
+      <c r="M32" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -2566,22 +2654,22 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="E33">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="F33">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G33">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H33">
-        <v>0.98409999999999997</v>
+        <v>0.97521999999999998</v>
       </c>
       <c r="I33">
-        <v>-3.288853063897563E-3</v>
+        <v>-0.10676353567374509</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2589,11 +2677,11 @@
       <c r="K33">
         <v>0</v>
       </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
+      <c r="L33" t="s">
+        <v>190</v>
+      </c>
+      <c r="M33" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -2607,22 +2695,22 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>244</v>
       </c>
       <c r="E34">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="F34">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G34">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H34">
         <v>0.99719999999999998</v>
       </c>
       <c r="I34">
-        <v>-3.3715301832291599E-3</v>
+        <v>-0.11195414486917631</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2630,11 +2718,11 @@
       <c r="K34">
         <v>0</v>
       </c>
-      <c r="L34">
-        <v>3</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
+      <c r="L34" t="s">
+        <v>190</v>
+      </c>
+      <c r="M34" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -2648,22 +2736,22 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>245</v>
       </c>
       <c r="E35">
-        <v>345</v>
+        <v>15.5</v>
       </c>
       <c r="F35">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G35">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H35">
         <v>1.0123</v>
       </c>
       <c r="I35">
-        <v>-2.8468397041837391E-2</v>
+        <v>-0.1386559370954375</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2671,11 +2759,11 @@
       <c r="K35">
         <v>0</v>
       </c>
-      <c r="L35">
-        <v>3</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
+      <c r="L35" t="s">
+        <v>190</v>
+      </c>
+      <c r="M35" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -2689,22 +2777,22 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>246</v>
       </c>
       <c r="E36">
-        <v>345</v>
+        <v>15.5</v>
       </c>
       <c r="F36">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G36">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H36">
-        <v>1.0494000000000001</v>
+        <v>1.0492999999999999</v>
       </c>
       <c r="I36">
-        <v>3.1005894589397651E-2</v>
+        <v>-7.3148494280334334E-2</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2712,11 +2800,11 @@
       <c r="K36">
         <v>0</v>
       </c>
-      <c r="L36">
-        <v>3</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
+      <c r="L36" t="s">
+        <v>190</v>
+      </c>
+      <c r="M36" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -2730,22 +2818,22 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>247</v>
       </c>
       <c r="E37">
-        <v>345</v>
+        <v>12.5</v>
       </c>
       <c r="F37">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G37">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H37">
-        <v>1.0636000000000001</v>
+        <v>1.0634999999999999</v>
       </c>
       <c r="I37">
-        <v>7.7988945049254868E-2</v>
+        <v>-2.5518458993409088E-2</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2753,11 +2841,11 @@
       <c r="K37">
         <v>0</v>
       </c>
-      <c r="L37">
-        <v>3</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
+      <c r="L37" t="s">
+        <v>190</v>
+      </c>
+      <c r="M37" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -2771,22 +2859,22 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>248</v>
       </c>
       <c r="E38">
-        <v>345</v>
+        <v>12.5</v>
       </c>
       <c r="F38">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G38">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H38">
-        <v>1.0275000000000001</v>
+        <v>1.0278</v>
       </c>
       <c r="I38">
-        <v>-2.7626795785867221E-2</v>
+        <v>-0.113889715009638</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2794,11 +2882,11 @@
       <c r="K38">
         <v>0</v>
       </c>
-      <c r="L38">
-        <v>2</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
+      <c r="L38" t="s">
+        <v>190</v>
+      </c>
+      <c r="M38" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -2812,22 +2900,22 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>249</v>
       </c>
       <c r="E39">
-        <v>345</v>
+        <v>34.5</v>
       </c>
       <c r="F39">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G39">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H39">
         <v>1.0265</v>
       </c>
       <c r="I39">
-        <v>6.7942486044912861E-2</v>
+        <v>-2.5851816880540009E-2</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2835,11 +2923,11 @@
       <c r="K39">
         <v>0</v>
       </c>
-      <c r="L39">
-        <v>3</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
+      <c r="L39" t="s">
+        <v>190</v>
+      </c>
+      <c r="M39" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -2853,22 +2941,22 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c r="E40">
         <v>345</v>
       </c>
       <c r="F40">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G40">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H40">
         <v>1.03</v>
       </c>
       <c r="I40">
-        <v>-0.2536880748202609</v>
+        <v>-0.1912880860185785</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2876,11 +2964,11 @@
       <c r="K40">
         <v>0</v>
       </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
+      <c r="L40" t="s">
+        <v>190</v>
+      </c>
+      <c r="M40" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2888,13 +2976,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+    <sheetView zoomScale="159" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2913,16 +3001,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -2939,25 +3027,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>345</v>
       </c>
       <c r="G2">
-        <v>0.97599999999999998</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>0.442</v>
+        <v>2.5</v>
       </c>
       <c r="I2">
         <v>1.2</v>
@@ -2965,37 +3053,43 @@
       <c r="J2">
         <v>0.8</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>345</v>
       </c>
       <c r="G3">
-        <v>3.22</v>
+        <v>4.5</v>
       </c>
       <c r="H3">
-        <v>2.4E-2</v>
+        <v>1.84</v>
       </c>
       <c r="I3">
         <v>1.2</v>
       </c>
       <c r="J3">
         <v>0.8</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3003,31 +3097,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>345</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>2.3380000000000001</v>
       </c>
       <c r="H4">
-        <v>1.84</v>
+        <v>0.84</v>
       </c>
       <c r="I4">
         <v>1.2</v>
       </c>
       <c r="J4">
         <v>0.8</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3035,31 +3132,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>345</v>
       </c>
       <c r="G5">
-        <v>2.3380000000000001</v>
+        <v>5.22</v>
       </c>
       <c r="H5">
-        <v>0.84</v>
+        <v>1.766</v>
       </c>
       <c r="I5">
         <v>1.2</v>
       </c>
       <c r="J5">
         <v>0.8</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3067,31 +3167,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>345</v>
+        <v>138</v>
       </c>
       <c r="G6">
-        <v>5.22</v>
+        <v>1.2</v>
       </c>
       <c r="H6">
-        <v>1.766</v>
+        <v>0.3</v>
       </c>
       <c r="I6">
         <v>1.2</v>
       </c>
       <c r="J6">
         <v>0.8</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -3099,31 +3202,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F7">
         <v>345</v>
       </c>
       <c r="G7">
-        <v>6.5000000000000002E-2</v>
+        <v>3.2</v>
       </c>
       <c r="H7">
-        <v>-0.66599999999999993</v>
+        <v>1.53</v>
       </c>
       <c r="I7">
         <v>1.2</v>
       </c>
       <c r="J7">
         <v>0.8</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -3131,31 +3237,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F8">
         <v>345</v>
       </c>
       <c r="G8">
-        <v>8.5299999999999987E-2</v>
+        <v>3.29</v>
       </c>
       <c r="H8">
-        <v>0.88</v>
+        <v>0.32299999999999995</v>
       </c>
       <c r="I8">
         <v>1.2</v>
       </c>
       <c r="J8">
         <v>0.8</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3163,31 +3272,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F9">
         <v>345</v>
       </c>
       <c r="G9">
-        <v>3.2</v>
+        <v>1.58</v>
       </c>
       <c r="H9">
-        <v>1.53</v>
+        <v>0.3</v>
       </c>
       <c r="I9">
         <v>1.2</v>
       </c>
       <c r="J9">
         <v>0.8</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3195,31 +3307,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F10">
-        <v>345</v>
+        <v>138</v>
       </c>
       <c r="G10">
-        <v>3.29</v>
+        <v>6.8</v>
       </c>
       <c r="H10">
-        <v>0.32300000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="I10">
         <v>1.2</v>
       </c>
       <c r="J10">
         <v>0.8</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3227,31 +3342,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F11">
         <v>345</v>
       </c>
       <c r="G11">
-        <v>1.58</v>
+        <v>2.74</v>
       </c>
       <c r="H11">
-        <v>0.3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I11">
         <v>1.2</v>
       </c>
       <c r="J11">
         <v>0.8</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3259,31 +3377,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F12">
         <v>345</v>
       </c>
       <c r="G12">
-        <v>6.8</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H12">
-        <v>1.03</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="I12">
         <v>1.2</v>
       </c>
       <c r="J12">
         <v>0.8</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3291,31 +3412,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="E13">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F13">
         <v>345</v>
       </c>
       <c r="G13">
-        <v>2.74</v>
+        <v>3.0860000000000003</v>
       </c>
       <c r="H13">
-        <v>1.1499999999999999</v>
+        <v>-0.92200000000000004</v>
       </c>
       <c r="I13">
         <v>1.2</v>
       </c>
       <c r="J13">
         <v>0.8</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3323,31 +3447,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="E14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F14">
         <v>345</v>
       </c>
       <c r="G14">
-        <v>2.4750000000000001</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="H14">
-        <v>0.84599999999999997</v>
+        <v>0.47200000000000003</v>
       </c>
       <c r="I14">
         <v>1.2</v>
       </c>
       <c r="J14">
         <v>0.8</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3355,31 +3482,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E15">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F15">
         <v>345</v>
       </c>
       <c r="G15">
-        <v>3.0859999999999999</v>
+        <v>1.39</v>
       </c>
       <c r="H15">
-        <v>-0.92200000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="I15">
         <v>1.2</v>
       </c>
       <c r="J15">
         <v>0.8</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -3387,25 +3517,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="E16">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F16">
         <v>345</v>
       </c>
       <c r="G16">
-        <v>2.2400000000000002</v>
+        <v>2.81</v>
       </c>
       <c r="H16">
-        <v>0.47199999999999998</v>
+        <v>0.755</v>
       </c>
       <c r="I16">
         <v>1.2</v>
@@ -3413,31 +3543,34 @@
       <c r="J16">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="E17">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F17">
         <v>345</v>
       </c>
       <c r="G17">
-        <v>1.39</v>
+        <v>2.06</v>
       </c>
       <c r="H17">
-        <v>0.17</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="I17">
         <v>1.2</v>
@@ -3445,31 +3578,34 @@
       <c r="J17">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="E18">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F18">
         <v>345</v>
       </c>
       <c r="G18">
-        <v>2.81</v>
+        <v>2.835</v>
       </c>
       <c r="H18">
-        <v>0.755</v>
+        <v>1.2690000000000001</v>
       </c>
       <c r="I18">
         <v>1.2</v>
@@ -3477,31 +3613,34 @@
       <c r="J18">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="E19">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F19">
-        <v>345</v>
+        <v>34.5</v>
       </c>
       <c r="G19">
-        <v>2.06</v>
+        <v>0.8</v>
       </c>
       <c r="H19">
-        <v>0.27600000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="I19">
         <v>1.2</v>
@@ -3509,31 +3648,34 @@
       <c r="J19">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="E20">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F20">
         <v>345</v>
       </c>
       <c r="G20">
-        <v>2.835</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>0.26900000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="I20">
         <v>1.2</v>
@@ -3541,69 +3683,8 @@
       <c r="J20">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21">
-        <v>31</v>
-      </c>
-      <c r="F21">
-        <v>345</v>
-      </c>
-      <c r="G21">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="H21">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="I21">
-        <v>1.2</v>
-      </c>
-      <c r="J21">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22">
-        <v>39</v>
-      </c>
-      <c r="F22">
-        <v>345</v>
-      </c>
-      <c r="G22">
-        <v>11.04</v>
-      </c>
-      <c r="H22">
-        <v>2.5</v>
-      </c>
-      <c r="I22">
-        <v>1.2</v>
-      </c>
-      <c r="J22">
-        <v>0.8</v>
+      <c r="K20">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3611,13 +3692,1040 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AG10"/>
+  <sheetViews>
+    <sheetView zoomScale="168" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>345</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>6.5</v>
+      </c>
+      <c r="J2">
+        <v>1.6176200000000001</v>
+      </c>
+      <c r="K2">
+        <v>10.4</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>1.4</v>
+      </c>
+      <c r="O2">
+        <v>1.0499000000000001</v>
+      </c>
+      <c r="P2">
+        <v>1.4</v>
+      </c>
+      <c r="Q2">
+        <v>0.6</v>
+      </c>
+      <c r="R2">
+        <v>2.5</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0.3</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>99</v>
+      </c>
+      <c r="AC2">
+        <v>99</v>
+      </c>
+      <c r="AD2">
+        <v>299</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>345</v>
+      </c>
+      <c r="G3">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <v>32</v>
+      </c>
+      <c r="I3">
+        <v>6.5</v>
+      </c>
+      <c r="J3">
+        <v>2.0696500000000002</v>
+      </c>
+      <c r="K3">
+        <v>7.25</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>1.5</v>
+      </c>
+      <c r="O3">
+        <v>0.98409999999999997</v>
+      </c>
+      <c r="P3">
+        <v>1.4</v>
+      </c>
+      <c r="Q3">
+        <v>0.6</v>
+      </c>
+      <c r="R3">
+        <v>0.5</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0.3</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>99</v>
+      </c>
+      <c r="AC3">
+        <v>99</v>
+      </c>
+      <c r="AD3">
+        <v>299</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>345</v>
+      </c>
+      <c r="G4">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>33</v>
+      </c>
+      <c r="I4">
+        <v>6.5</v>
+      </c>
+      <c r="J4">
+        <v>1.0829299999999999</v>
+      </c>
+      <c r="K4">
+        <v>6.52</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2.5</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0.99719999999999998</v>
+      </c>
+      <c r="P4">
+        <v>1.4</v>
+      </c>
+      <c r="Q4">
+        <v>0.6</v>
+      </c>
+      <c r="R4">
+        <v>0.5</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0.3</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>99</v>
+      </c>
+      <c r="AC4">
+        <v>99</v>
+      </c>
+      <c r="AD4">
+        <v>299</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>345</v>
+      </c>
+      <c r="G5">
+        <v>33</v>
+      </c>
+      <c r="H5">
+        <v>34</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1.6668799999999999</v>
+      </c>
+      <c r="K5">
+        <v>5.08</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1.67</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.0123</v>
+      </c>
+      <c r="P5">
+        <v>1.4</v>
+      </c>
+      <c r="Q5">
+        <v>0.6</v>
+      </c>
+      <c r="R5">
+        <v>0.5</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0.3</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>99</v>
+      </c>
+      <c r="AC5">
+        <v>99</v>
+      </c>
+      <c r="AD5">
+        <v>299</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>345</v>
+      </c>
+      <c r="G6">
+        <v>34</v>
+      </c>
+      <c r="H6">
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <v>6.6</v>
+      </c>
+      <c r="J6">
+        <v>2.1066099999999999</v>
+      </c>
+      <c r="K6">
+        <v>6.87</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>-1</v>
+      </c>
+      <c r="O6">
+        <v>1.0494000000000001</v>
+      </c>
+      <c r="P6">
+        <v>1.4</v>
+      </c>
+      <c r="Q6">
+        <v>0.6</v>
+      </c>
+      <c r="R6">
+        <v>0.5</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0.3</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>99</v>
+      </c>
+      <c r="AC6">
+        <v>99</v>
+      </c>
+      <c r="AD6">
+        <v>299</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>345</v>
+      </c>
+      <c r="G7">
+        <v>35</v>
+      </c>
+      <c r="H7">
+        <v>36</v>
+      </c>
+      <c r="I7">
+        <v>5.6</v>
+      </c>
+      <c r="J7">
+        <v>1.0016499999999999</v>
+      </c>
+      <c r="K7">
+        <v>5.8</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2.4</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.0636000000000001</v>
+      </c>
+      <c r="P7">
+        <v>1.4</v>
+      </c>
+      <c r="Q7">
+        <v>0.6</v>
+      </c>
+      <c r="R7">
+        <v>0.5</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0.3</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>99</v>
+      </c>
+      <c r="AC7">
+        <v>99</v>
+      </c>
+      <c r="AD7">
+        <v>299</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>345</v>
+      </c>
+      <c r="G8">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <v>37</v>
+      </c>
+      <c r="I8">
+        <v>5.4</v>
+      </c>
+      <c r="J8">
+        <v>-1.36945E-2</v>
+      </c>
+      <c r="K8">
+        <v>5.64</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2.5</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.0275000000000001</v>
+      </c>
+      <c r="P8">
+        <v>1.4</v>
+      </c>
+      <c r="Q8">
+        <v>0.6</v>
+      </c>
+      <c r="R8">
+        <v>0.5</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0.3</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>99</v>
+      </c>
+      <c r="AC8">
+        <v>99</v>
+      </c>
+      <c r="AD8">
+        <v>299</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>345</v>
+      </c>
+      <c r="G9">
+        <v>37</v>
+      </c>
+      <c r="H9">
+        <v>38</v>
+      </c>
+      <c r="I9">
+        <v>6.5</v>
+      </c>
+      <c r="J9">
+        <v>0.21732699999999999</v>
+      </c>
+      <c r="K9">
+        <v>8.65</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>-1.5</v>
+      </c>
+      <c r="O9">
+        <v>1.0265</v>
+      </c>
+      <c r="P9">
+        <v>1.4</v>
+      </c>
+      <c r="Q9">
+        <v>0.6</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>0.5</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0.3</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>99</v>
+      </c>
+      <c r="AC9">
+        <v>99</v>
+      </c>
+      <c r="AD9">
+        <v>299</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>345</v>
+      </c>
+      <c r="G10">
+        <v>38</v>
+      </c>
+      <c r="H10">
+        <v>39</v>
+      </c>
+      <c r="I10">
+        <v>6.5</v>
+      </c>
+      <c r="J10">
+        <v>0.78467399999999998</v>
+      </c>
+      <c r="K10">
+        <v>11</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>-1</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.4</v>
+      </c>
+      <c r="Q10">
+        <v>0.6</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0.3</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>99</v>
+      </c>
+      <c r="AC10">
+        <v>99</v>
+      </c>
+      <c r="AD10">
+        <v>299</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="135" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L39" sqref="L39"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3636,34 +4744,34 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>6</v>
@@ -3675,69 +4783,69 @@
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>2</v>
+      <c r="B2" t="s">
+        <v>252</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>262</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3746,10 +4854,7 @@
         <v>345</v>
       </c>
       <c r="G2">
-        <v>31</v>
-      </c>
-      <c r="H2">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I2">
         <v>6.7787100000000002</v>
@@ -3758,10 +4863,10 @@
         <v>2.2157399999999998</v>
       </c>
       <c r="K2">
-        <v>6.46</v>
+        <v>15</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <v>3</v>
@@ -3779,17 +4884,17 @@
         <v>0.6</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>0.3</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
       <c r="V2">
         <v>0</v>
       </c>
@@ -3812,22 +4917,22 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3835,11 +4940,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -3860,64 +4965,64 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>12</v>
@@ -3929,10 +5034,10 @@
         <v>9</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
@@ -3940,13 +5045,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -4020,13 +5125,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -4100,13 +5205,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>127</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -4180,13 +5285,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -4260,13 +5365,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>201</v>
+        <v>129</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -4340,13 +5445,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -4420,13 +5525,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -4500,13 +5605,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -4580,13 +5685,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -4660,13 +5765,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -4740,13 +5845,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>207</v>
+        <v>135</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -4820,13 +5925,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>208</v>
+        <v>136</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -4900,13 +6005,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -4980,13 +6085,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -5060,13 +6165,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="E16">
         <v>7</v>
@@ -5140,13 +6245,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -5220,13 +6325,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="E18">
         <v>9</v>
@@ -5300,13 +6405,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -5380,13 +6485,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="E20">
         <v>10</v>
@@ -5460,13 +6565,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -5540,13 +6645,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="E22">
         <v>12</v>
@@ -5620,13 +6725,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="E23">
         <v>12</v>
@@ -5700,13 +6805,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="E24">
         <v>13</v>
@@ -5780,13 +6885,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="E25">
         <v>14</v>
@@ -5860,13 +6965,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="E26">
         <v>15</v>
@@ -5940,13 +7045,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="E27">
         <v>16</v>
@@ -6020,13 +7125,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>223</v>
+        <v>151</v>
       </c>
       <c r="E28">
         <v>16</v>
@@ -6100,13 +7205,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>224</v>
+        <v>152</v>
       </c>
       <c r="E29">
         <v>16</v>
@@ -6180,13 +7285,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="E30">
         <v>16</v>
@@ -6260,13 +7365,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>226</v>
+        <v>154</v>
       </c>
       <c r="E31">
         <v>17</v>
@@ -6340,13 +7445,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="E32">
         <v>17</v>
@@ -6420,13 +7525,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="E33">
         <v>19</v>
@@ -6500,13 +7605,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>183</v>
+        <v>111</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="E34">
         <v>19</v>
@@ -6580,13 +7685,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>230</v>
+        <v>158</v>
       </c>
       <c r="E35">
         <v>20</v>
@@ -6660,13 +7765,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="E36">
         <v>21</v>
@@ -6740,13 +7845,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="E37">
         <v>22</v>
@@ -6820,13 +7925,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="E38">
         <v>22</v>
@@ -6900,13 +8005,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>188</v>
+        <v>116</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="E39">
         <v>23</v>
@@ -6980,13 +8085,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>235</v>
+        <v>163</v>
       </c>
       <c r="E40">
         <v>23</v>
@@ -7060,13 +8165,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="E41">
         <v>25</v>
@@ -7140,13 +8245,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>237</v>
+        <v>165</v>
       </c>
       <c r="E42">
         <v>25</v>
@@ -7220,13 +8325,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="E43">
         <v>26</v>
@@ -7300,13 +8405,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="E44">
         <v>26</v>
@@ -7380,13 +8485,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="E45">
         <v>26</v>
@@ -7460,13 +8565,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>195</v>
+        <v>123</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>241</v>
+        <v>169</v>
       </c>
       <c r="E46">
         <v>28</v>
@@ -7540,13 +8645,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="E47">
         <v>29</v>
@@ -7620,13 +8725,129 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D9F343-EA84-104D-B986-691ADB4C355F}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1076654-EF34-CC4B-89BB-5D9DC73428FE}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="117" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7645,25 +8866,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>244</v>
+        <v>172</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>245</v>
+        <v>173</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>246</v>
+        <v>174</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>249</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -7671,16 +8892,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E2" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -7692,13 +8913,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="J2">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="K2">
-        <v>20</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -7706,16 +8927,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" t="s">
         <v>251</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E3" t="s">
-        <v>262</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -7727,13 +8948,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="J3">
-        <v>30</v>
+        <v>30.4</v>
       </c>
       <c r="K3">
-        <v>20</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -7741,16 +8962,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="E4" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -7762,13 +8983,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>100</v>
+        <v>100.6</v>
       </c>
       <c r="J4">
-        <v>30</v>
+        <v>30.6</v>
       </c>
       <c r="K4">
-        <v>20</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -7776,16 +8997,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>181</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="E5" t="s">
-        <v>264</v>
+        <v>201</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -7797,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>100</v>
+        <v>100.9</v>
       </c>
       <c r="J5">
-        <v>30</v>
+        <v>30.9</v>
       </c>
       <c r="K5">
-        <v>20</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -7811,16 +9032,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>182</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="E6" t="s">
-        <v>265</v>
+        <v>202</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -7832,13 +9053,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>100</v>
+        <v>100.5</v>
       </c>
       <c r="J6">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="K6">
-        <v>20</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -7846,16 +9067,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="E7" t="s">
-        <v>266</v>
+        <v>203</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -7867,13 +9088,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>100</v>
+        <v>100.7</v>
       </c>
       <c r="J7">
-        <v>30</v>
+        <v>30.7</v>
       </c>
       <c r="K7">
-        <v>20</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -7881,16 +9102,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>256</v>
+        <v>184</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="E8" t="s">
-        <v>267</v>
+        <v>204</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -7902,13 +9123,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>100</v>
+        <v>100.8</v>
       </c>
       <c r="J8">
-        <v>30</v>
+        <v>30.8</v>
       </c>
       <c r="K8">
-        <v>20</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -7916,16 +9137,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E9" t="s">
-        <v>268</v>
+        <v>205</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -7937,13 +9158,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="J9">
-        <v>30</v>
+        <v>30.3</v>
       </c>
       <c r="K9">
-        <v>20</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -7951,16 +9172,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>186</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="E10" t="s">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -7972,13 +9193,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="J10">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K10">
-        <v>20</v>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -7986,16 +9207,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>259</v>
+        <v>187</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E11" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -8017,1174 +9238,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D9F343-EA84-104D-B986-691ADB4C355F}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1076654-EF34-CC4B-89BB-5D9DC73428FE}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AG10"/>
-  <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>345</v>
-      </c>
-      <c r="G2">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>30</v>
-      </c>
-      <c r="I2">
-        <v>2.5</v>
-      </c>
-      <c r="J2">
-        <v>1.6176200000000001</v>
-      </c>
-      <c r="K2">
-        <v>10.4</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2">
-        <v>1.4</v>
-      </c>
-      <c r="O2">
-        <v>1.0499000000000001</v>
-      </c>
-      <c r="P2">
-        <v>1.4</v>
-      </c>
-      <c r="Q2">
-        <v>0.6</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0.3</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0.01</v>
-      </c>
-      <c r="AA2">
-        <v>0.01</v>
-      </c>
-      <c r="AB2">
-        <v>0.01</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>30</v>
-      </c>
-      <c r="AG2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>345</v>
-      </c>
-      <c r="G3">
-        <v>32</v>
-      </c>
-      <c r="H3">
-        <v>32</v>
-      </c>
-      <c r="I3">
-        <v>6.5</v>
-      </c>
-      <c r="J3">
-        <v>2.0696500000000002</v>
-      </c>
-      <c r="K3">
-        <v>7.25</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-      <c r="N3">
-        <v>1.5</v>
-      </c>
-      <c r="O3">
-        <v>0.98409999999999997</v>
-      </c>
-      <c r="P3">
-        <v>1.4</v>
-      </c>
-      <c r="Q3">
-        <v>0.6</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0.3</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>30</v>
-      </c>
-      <c r="AG3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>345</v>
-      </c>
-      <c r="G4">
-        <v>33</v>
-      </c>
-      <c r="H4">
-        <v>33</v>
-      </c>
-      <c r="I4">
-        <v>6.32</v>
-      </c>
-      <c r="J4">
-        <v>1.0829299999999999</v>
-      </c>
-      <c r="K4">
-        <v>6.52</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>2.5</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0.99719999999999998</v>
-      </c>
-      <c r="P4">
-        <v>1.4</v>
-      </c>
-      <c r="Q4">
-        <v>0.6</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0.3</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>30</v>
-      </c>
-      <c r="AG4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>345</v>
-      </c>
-      <c r="G5">
-        <v>34</v>
-      </c>
-      <c r="H5">
-        <v>34</v>
-      </c>
-      <c r="I5">
-        <v>5.08</v>
-      </c>
-      <c r="J5">
-        <v>1.6668799999999999</v>
-      </c>
-      <c r="K5">
-        <v>5.08</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>1.67</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>1.0123</v>
-      </c>
-      <c r="P5">
-        <v>1.4</v>
-      </c>
-      <c r="Q5">
-        <v>0.6</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0.3</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>30</v>
-      </c>
-      <c r="AG5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>345</v>
-      </c>
-      <c r="G6">
-        <v>35</v>
-      </c>
-      <c r="H6">
-        <v>35</v>
-      </c>
-      <c r="I6">
-        <v>6.5</v>
-      </c>
-      <c r="J6">
-        <v>2.1066099999999999</v>
-      </c>
-      <c r="K6">
-        <v>6.87</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6">
-        <v>-1</v>
-      </c>
-      <c r="O6">
-        <v>1.0494000000000001</v>
-      </c>
-      <c r="P6">
-        <v>1.4</v>
-      </c>
-      <c r="Q6">
-        <v>0.6</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0.3</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>30</v>
-      </c>
-      <c r="AG6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>345</v>
-      </c>
-      <c r="G7">
-        <v>36</v>
-      </c>
-      <c r="H7">
-        <v>36</v>
-      </c>
-      <c r="I7">
-        <v>5.6</v>
-      </c>
-      <c r="J7">
-        <v>1.0016499999999999</v>
-      </c>
-      <c r="K7">
-        <v>5.8</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>2.4</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>1.0636000000000001</v>
-      </c>
-      <c r="P7">
-        <v>1.4</v>
-      </c>
-      <c r="Q7">
-        <v>0.6</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0.3</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>30</v>
-      </c>
-      <c r="AG7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>345</v>
-      </c>
-      <c r="G8">
-        <v>37</v>
-      </c>
-      <c r="H8">
-        <v>37</v>
-      </c>
-      <c r="I8">
-        <v>5.4</v>
-      </c>
-      <c r="J8">
-        <v>-1.36945E-2</v>
-      </c>
-      <c r="K8">
-        <v>5.64</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>2.5</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>1.0275000000000001</v>
-      </c>
-      <c r="P8">
-        <v>1.4</v>
-      </c>
-      <c r="Q8">
-        <v>0.6</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0.3</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>30</v>
-      </c>
-      <c r="AG8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>345</v>
-      </c>
-      <c r="G9">
-        <v>38</v>
-      </c>
-      <c r="H9">
-        <v>38</v>
-      </c>
-      <c r="I9">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="J9">
-        <v>0.21732699999999999</v>
-      </c>
-      <c r="K9">
-        <v>8.65</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="N9">
-        <v>-1.5</v>
-      </c>
-      <c r="O9">
-        <v>1.0265</v>
-      </c>
-      <c r="P9">
-        <v>1.4</v>
-      </c>
-      <c r="Q9">
-        <v>0.6</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0.3</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>30</v>
-      </c>
-      <c r="AG9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10">
-        <v>345</v>
-      </c>
-      <c r="G10">
-        <v>39</v>
-      </c>
-      <c r="H10">
-        <v>39</v>
-      </c>
-      <c r="I10">
-        <v>10</v>
-      </c>
-      <c r="J10">
-        <v>0.78467399999999998</v>
-      </c>
-      <c r="K10">
-        <v>11</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-      <c r="N10">
-        <v>-1</v>
-      </c>
-      <c r="O10">
-        <v>1.03</v>
-      </c>
-      <c r="P10">
-        <v>1.4</v>
-      </c>
-      <c r="Q10">
-        <v>0.6</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0.3</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>30</v>
-      </c>
-      <c r="AG10">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/ams/cases/ieee39/ieee39.xlsx
+++ b/ams/cases/ieee39/ieee39.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C5C2E2-AC73-2844-9069-E899ADF66072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC1D899-D2BC-5B48-9744-79413863D792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
-    <sheet name="Bus" sheetId="1" r:id="rId2"/>
-    <sheet name="PQ" sheetId="2" r:id="rId3"/>
-    <sheet name="PV" sheetId="3" r:id="rId4"/>
-    <sheet name="Slack" sheetId="4" r:id="rId5"/>
-    <sheet name="Line" sheetId="5" r:id="rId6"/>
-    <sheet name="Area" sheetId="7" r:id="rId7"/>
-    <sheet name="Region" sheetId="8" r:id="rId8"/>
-    <sheet name="GCost" sheetId="6" r:id="rId9"/>
+    <sheet name="Shunt" sheetId="15" r:id="rId2"/>
+    <sheet name="Bus" sheetId="1" r:id="rId3"/>
+    <sheet name="PQ" sheetId="2" r:id="rId4"/>
+    <sheet name="PV" sheetId="3" r:id="rId5"/>
+    <sheet name="Slack" sheetId="4" r:id="rId6"/>
+    <sheet name="Line" sheetId="5" r:id="rId7"/>
+    <sheet name="Area" sheetId="7" r:id="rId8"/>
+    <sheet name="Region" sheetId="8" r:id="rId9"/>
+    <sheet name="GCost" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="281">
   <si>
     <t>idx</t>
   </si>
@@ -860,6 +861,30 @@
   </si>
   <si>
     <t>Gcost 10</t>
+  </si>
+  <si>
+    <t>Shunt_1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Shunt_2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1342,521 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>100.2</v>
+      </c>
+      <c r="J2">
+        <v>30.2</v>
+      </c>
+      <c r="K2">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>100.4</v>
+      </c>
+      <c r="J3">
+        <v>30.4</v>
+      </c>
+      <c r="K3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>100.6</v>
+      </c>
+      <c r="J4">
+        <v>30.6</v>
+      </c>
+      <c r="K4">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>100.9</v>
+      </c>
+      <c r="J5">
+        <v>30.9</v>
+      </c>
+      <c r="K5">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>100.5</v>
+      </c>
+      <c r="J6">
+        <v>30.5</v>
+      </c>
+      <c r="K6">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>100.7</v>
+      </c>
+      <c r="J7">
+        <v>30.7</v>
+      </c>
+      <c r="K7">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>100.8</v>
+      </c>
+      <c r="J8">
+        <v>30.8</v>
+      </c>
+      <c r="K8">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>100.3</v>
+      </c>
+      <c r="J9">
+        <v>30.3</v>
+      </c>
+      <c r="K9">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>100.1</v>
+      </c>
+      <c r="J10">
+        <v>30.1</v>
+      </c>
+      <c r="K10">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E11" t="s">
+        <v>252</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF777EDE-BAF0-7E49-9675-FFF125FD6869}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I3" t="s">
+        <v>280</v>
+      </c>
+      <c r="J3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
@@ -2976,7 +3515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
@@ -3692,7 +4231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG10"/>
   <sheetViews>
@@ -4719,7 +5258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
@@ -4940,7 +5479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AC47"/>
   <sheetViews>
@@ -8725,7 +9264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D9F343-EA84-104D-B986-691ADB4C355F}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -8783,7 +9322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1076654-EF34-CC4B-89BB-5D9DC73428FE}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -8839,407 +9378,4 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>100.2</v>
-      </c>
-      <c r="J2">
-        <v>30.2</v>
-      </c>
-      <c r="K2">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>100.4</v>
-      </c>
-      <c r="J3">
-        <v>30.4</v>
-      </c>
-      <c r="K3">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>100.6</v>
-      </c>
-      <c r="J4">
-        <v>30.6</v>
-      </c>
-      <c r="K4">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E5" t="s">
-        <v>201</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>100.9</v>
-      </c>
-      <c r="J5">
-        <v>30.9</v>
-      </c>
-      <c r="K5">
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>267</v>
-      </c>
-      <c r="E6" t="s">
-        <v>202</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>100.5</v>
-      </c>
-      <c r="J6">
-        <v>30.5</v>
-      </c>
-      <c r="K6">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>268</v>
-      </c>
-      <c r="E7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>100.7</v>
-      </c>
-      <c r="J7">
-        <v>30.7</v>
-      </c>
-      <c r="K7">
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" t="s">
-        <v>204</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>100.8</v>
-      </c>
-      <c r="J8">
-        <v>30.8</v>
-      </c>
-      <c r="K8">
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>100.3</v>
-      </c>
-      <c r="J9">
-        <v>30.3</v>
-      </c>
-      <c r="K9">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>271</v>
-      </c>
-      <c r="E10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>100.1</v>
-      </c>
-      <c r="J10">
-        <v>30.1</v>
-      </c>
-      <c r="K10">
-        <v>20.100000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>272</v>
-      </c>
-      <c r="E11" t="s">
-        <v>252</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>100</v>
-      </c>
-      <c r="J11">
-        <v>30</v>
-      </c>
-      <c r="K11">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/ams/cases/ieee39/ieee39.xlsx
+++ b/ams/cases/ieee39/ieee39.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee39/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC1D899-D2BC-5B48-9744-79413863D792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4BFBB2-F924-D045-A407-14E160E804B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Slack" sheetId="4" r:id="rId6"/>
     <sheet name="Line" sheetId="5" r:id="rId7"/>
     <sheet name="Area" sheetId="7" r:id="rId8"/>
-    <sheet name="Region" sheetId="8" r:id="rId9"/>
+    <sheet name="Zone" sheetId="8" r:id="rId9"/>
     <sheet name="GCost" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1749,7 +1749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF777EDE-BAF0-7E49-9675-FFF125FD6869}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -9326,7 +9326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1076654-EF34-CC4B-89BB-5D9DC73428FE}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
